--- a/Sprint_1_samoocena_zespolu.xlsx
+++ b/Sprint_1_samoocena_zespolu.xlsx
@@ -66,9 +66,6 @@
     <t>Zaprojektowano model klas z wykorzystaniem diagramu klas UML i umieszczono go w repozytorium lub na wiki projektu</t>
   </si>
   <si>
-    <t>Link do diagramu</t>
-  </si>
-  <si>
     <t>Stworzono min. 1 klasę testującą i 5 metod testujących**</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Mateusz Babiaczyk, Mateusz Dąbski, Bartek Paulewicz</t>
+  </si>
+  <si>
+    <t>https://github.com/Mateusz7410/IO-TextTransformation/blob/master/DiagramUML.pdf</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:AA999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -572,13 +572,13 @@
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="59.88671875" customWidth="1"/>
+    <col min="5" max="5" width="70.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -918,7 +918,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -996,7 +996,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1026,7 +1026,7 @@
         <v>7.1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6">
         <v>65</v>
@@ -1063,7 +1063,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="11">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>1.2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="11">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>2.1</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="11">
         <v>20</v>
@@ -1105,7 +1105,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="11">
         <v>10</v>
@@ -1119,7 +1119,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="11">
         <v>20</v>
@@ -1133,7 +1133,7 @@
         <v>2.4</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="11">
         <v>30</v>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="14">
         <v>40</v>
@@ -1161,7 +1161,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="14">
         <v>20</v>

--- a/Sprint_1_samoocena_zespolu.xlsx
+++ b/Sprint_1_samoocena_zespolu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Sprint</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>https://github.com/Mateusz7410/IO-TextTransformation/blob/master/DiagramUML.pdf</t>
+  </si>
+  <si>
+    <t>w scieżce: ioprojectarchitecture\target\site\apidocs</t>
   </si>
 </sst>
 </file>
@@ -562,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -573,6 +576,7 @@
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -920,7 +924,9 @@
       <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -959,7 +965,9 @@
       <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
